--- a/graficosTesisCompendio.xlsx
+++ b/graficosTesisCompendio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Revistas</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>J. SCMP</t>
+  </si>
+  <si>
+    <t>Revistas (JCR)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revistas</c:v>
+                  <c:v>Revistas (JCR)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -216,18 +219,14 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -375,7 +374,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -614,7 +612,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -631,10 +628,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -670,7 +664,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -816,7 +809,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -833,15 +825,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -858,15 +846,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -883,15 +867,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -908,10 +888,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -948,7 +925,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1028,11 +1004,11 @@
         </c:dLbls>
         <c:gapWidth val="21"/>
         <c:overlap val="100"/>
-        <c:axId val="-1947045760"/>
-        <c:axId val="-1947035424"/>
+        <c:axId val="-1141137456"/>
+        <c:axId val="-1141138000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1947045760"/>
+        <c:axId val="-1141137456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1051,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1947035424"/>
+        <c:crossAx val="-1141138000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1947035424"/>
+        <c:axId val="-1141138000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1135,7 +1111,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1947045760"/>
+        <c:crossAx val="-1141137456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2075,7 +2051,7 @@
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,7 +2162,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0</v>
